--- a/results/I3_N5_M2_T45_C150_DepCentral_s3_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.0257182372881</v>
+        <v>249.4316415516094</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6059999465942383</v>
+        <v>0.7090001106262207</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728903</v>
+        <v>29.43164155160937</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8399999999991</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>39.93048325774537</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.10555953090582</v>
+        <v>38.42171004012843</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.8839324825959</v>
+        <v>40.95382378164953</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.55091596648896</v>
+        <v>35.70238675931963</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999935</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.4099999999989</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>156.3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>150.504999999999</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>154.0549999999999</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>149.725</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>158.8950000000017</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>160.3749999999997</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>165.9450000000004</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>164.0850000000002</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>167.35</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>91.57499999999978</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>84.17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.75500000000044</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>93.49500000000045</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>92.76499999999993</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.409999999998</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.5049999999992</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.0550000000003</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.7250000000004</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>158.8950000000017</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>160.3749999999997</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>165.9450000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>164.0850000000002</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>167.35</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.409999999998035</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5049999999991996</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.055000000000291</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.895000000001724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.37499999999975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.94500000000037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>14.08500000000017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.35</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1962,53 +1962,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
